--- a/rottenburg.xlsx
+++ b/rottenburg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\TF2\MvM\Potato.tf\Mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBB15CC-9FBB-401D-92AD-8C686EB4076B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F393665A-D0BB-43A3-A8A0-E1255F2F3642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73F15185-0D35-498E-BFD1-06DB83CB9725}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>int</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Marathon</t>
+  </si>
+  <si>
+    <t>Calendartillery</t>
+  </si>
+  <si>
+    <t>Germanium Gearbox</t>
   </si>
 </sst>
 </file>
@@ -424,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5046F2-F4AA-4E06-8DFD-4329CCF70D09}">
-  <dimension ref="B2:J6"/>
+  <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -493,6 +499,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
